--- a/DataBase/DBSchema.xlsx
+++ b/DataBase/DBSchema.xlsx
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/DataBase/DBSchema.xlsx
+++ b/DataBase/DBSchema.xlsx
@@ -226,9 +226,6 @@
     <t>Upset Stomach</t>
   </si>
   <si>
-    <t>Feeling uneasinees in stomach</t>
-  </si>
-  <si>
     <t>Sudden temporary loss of consiousness</t>
   </si>
   <si>
@@ -254,6 +251,9 @@
   </si>
   <si>
     <t>access_status</t>
+  </si>
+  <si>
+    <t>Feeling uneasinees in stomach.</t>
   </si>
 </sst>
 </file>
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -935,7 +935,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>24</v>
@@ -1120,12 +1120,12 @@
     </row>
     <row r="19" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>17</v>
@@ -1134,10 +1134,10 @@
         <v>40</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>1</v>
@@ -1151,7 +1151,7 @@
         <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="6">
@@ -1169,7 +1169,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="6">
         <v>44612</v>
@@ -1194,7 +1194,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1237,7 +1237,7 @@
         <v>40</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>1</v>
@@ -1251,7 +1251,7 @@
         <v>42</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="6">
         <v>44597</v>
@@ -1268,7 +1268,7 @@
         <v>58</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D37" s="6">
         <v>44602</v>
